--- a/Images_and_Data/Data/World_pop_hist.xlsx
+++ b/Images_and_Data/Data/World_pop_hist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81CE136F-7DCD-4B0C-A104-B5AFD064A7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB846E3D-F634-4CAA-8A68-0F6D634F6A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7395" yWindow="1080" windowWidth="16305" windowHeight="13995" xr2:uid="{9CE56895-1E63-4354-B85C-9888278EC928}"/>
   </bookViews>
@@ -398,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35FA8DB-502F-468B-875D-B776DCFE2BEA}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,370 +416,274 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-10000</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2">
-        <v>3</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-9000</v>
+        <v>200</v>
       </c>
       <c r="B3" s="2">
-        <v>4</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-8000</v>
+        <v>300</v>
       </c>
       <c r="B4" s="2">
-        <v>5</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>-7000</v>
+        <v>350</v>
       </c>
       <c r="B5" s="2">
-        <v>8</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-6000</v>
+        <v>400</v>
       </c>
       <c r="B6" s="2">
-        <v>11</v>
+        <v>201.66666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-5000</v>
+        <v>500</v>
       </c>
       <c r="B7" s="2">
-        <v>11.5</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>-4000</v>
+        <v>600</v>
       </c>
       <c r="B8" s="2">
-        <v>17.5</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>-3000</v>
+        <v>700</v>
       </c>
       <c r="B9" s="2">
-        <v>29.5</v>
+        <v>214.33333333333334</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>-2000</v>
+        <v>800</v>
       </c>
       <c r="B10" s="2">
-        <v>49.5</v>
+        <v>236.25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>-1000</v>
+        <v>900</v>
       </c>
       <c r="B11" s="2">
-        <v>82.5</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>-200</v>
+        <v>1000</v>
       </c>
       <c r="B12" s="2">
-        <v>150</v>
+        <v>278.5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1</v>
+        <v>1100</v>
       </c>
       <c r="B13" s="2">
-        <v>231.25</v>
+        <v>324.66666666666669</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="B14" s="2">
-        <v>195</v>
+        <v>384.25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>200</v>
+        <v>1250</v>
       </c>
       <c r="B15" s="2">
-        <v>216</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="B16" s="2">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>350</v>
+        <v>1340</v>
       </c>
       <c r="B17" s="2">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>410.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="B18" s="2">
-        <v>201.66666666666666</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>371.33333333333331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="B19" s="2">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>451.83333333333331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="B20" s="2">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>546.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>700</v>
+        <v>1650</v>
       </c>
       <c r="B21" s="2">
-        <v>214.33333333333334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>530.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="B22" s="2">
-        <v>236.25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>622.66666666666663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>900</v>
+        <v>1750</v>
       </c>
       <c r="B23" s="2">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>765.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="B24" s="2">
-        <v>278.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>944.42857142857144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1100</v>
+        <v>1820</v>
       </c>
       <c r="B25" s="2">
-        <v>324.66666666666669</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1200</v>
+        <v>1850</v>
       </c>
       <c r="B26" s="2">
-        <v>384.25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1246.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1250</v>
+        <v>1870</v>
       </c>
       <c r="B27" s="2">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1300</v>
+        <v>1875</v>
       </c>
       <c r="B28" s="2">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1340</v>
+        <v>1900</v>
       </c>
       <c r="B29" s="2">
-        <v>410.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1631.125</v>
+      </c>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1400</v>
+        <v>1910</v>
       </c>
       <c r="B30" s="2">
-        <v>371.33333333333331</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1763.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1500</v>
+        <v>1913</v>
       </c>
       <c r="B31" s="2">
-        <v>451.83333333333331</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1600</v>
+        <v>1920</v>
       </c>
       <c r="B32" s="2">
-        <v>546.4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1900.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1650</v>
+        <v>1925</v>
       </c>
       <c r="B33" s="2">
-        <v>530.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1700</v>
+        <v>1930</v>
       </c>
       <c r="B34" s="2">
-        <v>622.66666666666663</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2102.3333333333335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1750</v>
+        <v>1940</v>
       </c>
       <c r="B35" s="2">
-        <v>765.2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>1800</v>
-      </c>
-      <c r="B36" s="2">
-        <v>944.42857142857144</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1820</v>
-      </c>
-      <c r="B37" s="2">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1850</v>
-      </c>
-      <c r="B38" s="2">
-        <v>1246.2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>1870</v>
-      </c>
-      <c r="B39" s="2">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>1875</v>
-      </c>
-      <c r="B40" s="2">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>1900</v>
-      </c>
-      <c r="B41" s="2">
-        <v>1631.125</v>
-      </c>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>1910</v>
-      </c>
-      <c r="B42" s="2">
-        <v>1763.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>1913</v>
-      </c>
-      <c r="B43" s="2">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>1920</v>
-      </c>
-      <c r="B44" s="2">
-        <v>1900.75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>1925</v>
-      </c>
-      <c r="B45" s="2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>1930</v>
-      </c>
-      <c r="B46" s="2">
-        <v>2102.3333333333335</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>1940</v>
-      </c>
-      <c r="B47" s="2">
         <v>2311.5</v>
       </c>
     </row>
